--- a/student_template_1.xlsx
+++ b/student_template_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ACE_Hosur\Projects\ACE_cs_leaveportal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B228CD10-AEC1-4375-9C37-84D36AD81A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="244">
   <si>
     <t>name</t>
   </si>
@@ -45,9 +46,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>Test Tutor</t>
-  </si>
-  <si>
     <t>haritha.N</t>
   </si>
   <si>
@@ -66,9 +64,6 @@
     <t>Dinesh12</t>
   </si>
   <si>
-    <t>2403617614921010</t>
-  </si>
-  <si>
     <t>2403617614922020</t>
   </si>
   <si>
@@ -423,9 +418,6 @@
     <t>poovarasanace39@gmail.com</t>
   </si>
   <si>
-    <t>poo1001</t>
-  </si>
-  <si>
     <t>aiswarya</t>
   </si>
   <si>
@@ -597,9 +589,6 @@
     <t>kumarragul955@gmail.com</t>
   </si>
   <si>
-    <t>ragul123</t>
-  </si>
-  <si>
     <t>Ranjith S</t>
   </si>
   <si>
@@ -733,12 +722,42 @@
   </si>
   <si>
     <t>kdfreeboy001@gmail.com</t>
+  </si>
+  <si>
+    <t>10/01/2007</t>
+  </si>
+  <si>
+    <t>roshan@44</t>
+  </si>
+  <si>
+    <t>2403617614923003</t>
+  </si>
+  <si>
+    <t>2403617614923002</t>
+  </si>
+  <si>
+    <t>Prasanth. M</t>
+  </si>
+  <si>
+    <t>2403617614921016</t>
+  </si>
+  <si>
+    <t>2403617614921041</t>
+  </si>
+  <si>
+    <t>Kanimozhi</t>
+  </si>
+  <si>
+    <t>its.mi.ptasanth.25@gmail.com</t>
+  </si>
+  <si>
+    <t>prasanth12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -777,12 +796,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1123,24 +1141,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="32.125" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" customWidth="1"/>
+    <col min="6" max="6" width="32.09765625" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1166,41 +1184,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2">
+        <v>2024</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>2024</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G2">
         <v>9865426211</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="D3">
         <v>2024</v>
@@ -1209,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>8838284803</v>
@@ -1218,128 +1236,128 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4">
+        <v>2024</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>2024</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G4">
         <v>8667381249</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5">
+        <v>2024</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5">
+        <v>8610690723</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="4">
-        <v>8610690723</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6">
+        <v>2024</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>2024</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G6">
         <v>8489257287</v>
       </c>
       <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7">
+        <v>2024</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7">
+        <v>9361830426</v>
+      </c>
+      <c r="H7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="4">
-        <v>9361830426</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8">
+        <v>2024</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>2024</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G8">
         <v>9597316013</v>
@@ -1348,24 +1366,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9">
+        <v>2024</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>2024</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G9">
         <v>9361503916</v>
@@ -1374,223 +1392,223 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10">
+        <v>2024</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10">
+        <v>7558194875</v>
+      </c>
+      <c r="H10" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="4">
-        <v>7558194875</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11">
+        <v>2024</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>2024</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G11">
         <v>8248589870</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12">
+        <v>2024</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>2024</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G12">
         <v>9043984474</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13">
+        <v>2024</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13">
+        <v>9003387716</v>
+      </c>
+      <c r="H13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="C14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14">
+        <v>2024</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G13" s="4">
-        <v>9003387716</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="G14">
+        <v>8056586542</v>
+      </c>
+      <c r="H14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14" s="4">
-        <v>8056586542</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15">
+        <v>2024</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>2024</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="G15">
         <v>9361535029</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16">
+        <v>2024</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>2024</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="G16">
         <v>6381114154</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17">
+        <v>2024</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G17">
         <v>8667371374</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -1599,50 +1617,50 @@
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G18">
         <v>7397670599</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19">
+        <v>2024</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19">
+        <v>6380655771</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E19" s="4">
-        <v>3</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" s="4">
-        <v>6380655771</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="D20">
         <v>2024</v>
@@ -1651,102 +1669,102 @@
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G20">
         <v>8072689661</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21">
+        <v>2024</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>2024</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G21">
         <v>9600861171</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>221</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>217</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E22" s="4">
-        <v>3</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G22" s="4">
+        <v>241</v>
+      </c>
+      <c r="D22">
+        <v>2024</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22">
         <v>7810002775</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23">
+        <v>2024</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>2024</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="G23">
         <v>8148323407</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="D24">
         <v>2024</v>
@@ -1755,24 +1773,24 @@
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G24">
         <v>9677888037</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="D25">
         <v>2024</v>
@@ -1781,33 +1799,33 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G25">
         <v>9363976603</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26">
+        <v>2024</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>2024</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="G26">
         <v>9489125195</v>
@@ -1816,15 +1834,15 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="D27">
         <v>2024</v>
@@ -1833,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G27">
         <v>8608288623</v>
@@ -1842,145 +1860,145 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>201</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>197</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E28" s="4">
-        <v>3</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G28" s="4">
+        <v>241</v>
+      </c>
+      <c r="D28">
+        <v>2024</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28">
         <v>9994488673</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29">
+        <v>2024</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>2024</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="G29">
         <v>8825538756</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30">
+        <v>2024</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>2024</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="G30">
         <v>8248667566</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31">
+        <v>2024</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>2024</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="G31">
         <v>6383416116</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32">
+        <v>2024</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>2024</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="G32">
         <v>8870795669</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="D33">
         <v>2024</v>
@@ -1989,76 +2007,76 @@
         <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G33">
         <v>9344245568</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34">
+        <v>2024</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34">
+        <v>9345576376</v>
+      </c>
+      <c r="H34" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E34" s="4">
-        <v>3</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34" s="4">
-        <v>9345576376</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35">
+        <v>2024</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>2024</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="G35">
         <v>9344599851</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="D36">
         <v>2024</v>
@@ -2067,102 +2085,102 @@
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G36">
         <v>8248279602</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37">
+        <v>2024</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37">
+        <v>8270543296</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E37" s="4">
-        <v>3</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G37" s="4">
-        <v>8270543296</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38">
+        <v>2024</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>2024</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G38">
         <v>9344450137</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39">
+        <v>2024</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>2024</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="G39">
         <v>8072468963</v>
       </c>
-      <c r="H39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="D40">
         <v>2024</v>
@@ -2171,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G40">
         <v>9176558201</v>
@@ -2180,633 +2198,667 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" t="s">
+        <v>241</v>
+      </c>
+      <c r="D41">
+        <v>2024</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41">
+        <v>9943019288</v>
+      </c>
+      <c r="H41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>66</v>
       </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41">
-        <v>2024</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41">
+      <c r="B42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>241</v>
+      </c>
+      <c r="D42">
+        <v>2024</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42">
         <v>8825788928</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>552006</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43">
+        <v>2024</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="G43">
+        <v>9363926866</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42" s="1" t="s">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44">
+        <v>2024</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44">
+        <v>9600446511</v>
+      </c>
+      <c r="H44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45">
+        <v>2024</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45">
+        <v>8754697704</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46">
+        <v>2024</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46">
+        <v>9345327370</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47">
+        <v>2024</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G47">
+        <v>8072703243</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48">
+        <v>2024</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48">
+        <v>8778001915</v>
+      </c>
+      <c r="H48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49">
+        <v>2024</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49">
+        <v>8838723399</v>
+      </c>
+      <c r="H49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50">
+        <v>2024</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50">
+        <v>7904451314</v>
+      </c>
+      <c r="H50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51">
+        <v>2024</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51">
+        <v>9514324027</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52">
+        <v>2024</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52">
+        <v>8248706456</v>
+      </c>
+      <c r="H52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53">
+        <v>2024</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53">
+        <v>8838231418</v>
+      </c>
+      <c r="H53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54">
+        <v>2024</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54">
+        <v>9344828825</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>241</v>
+      </c>
+      <c r="D55">
+        <v>2024</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55">
+        <v>9361548241</v>
+      </c>
+      <c r="H55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56">
+        <v>2024</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56">
+        <v>8072942534</v>
+      </c>
+      <c r="H56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>79</v>
       </c>
-      <c r="G42">
-        <v>9363926866</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43">
-        <v>2024</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43">
-        <v>9600446511</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="C57" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57">
+        <v>2024</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57">
+        <v>7200280918</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" t="s">
+        <v>241</v>
+      </c>
+      <c r="D58">
+        <v>2024</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G58">
+        <v>8015819026</v>
+      </c>
+      <c r="H58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59">
+        <v>2024</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59">
+        <v>9363797199</v>
+      </c>
+      <c r="H59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60">
+        <v>2024</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60">
+        <v>9344371890</v>
+      </c>
+      <c r="H60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E44" s="4">
-        <v>3</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G44" s="4">
-        <v>8754697704</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45">
-        <v>2024</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G45">
-        <v>9345327370</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E46" s="4">
-        <v>3</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G46" s="4">
-        <v>8072703243</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E47" s="4">
-        <v>3</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G47" s="4">
-        <v>8778001915</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E48" s="4">
-        <v>3</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G48" s="4">
-        <v>8838723399</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49">
-        <v>2024</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49">
-        <v>7904451314</v>
-      </c>
-      <c r="H49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50">
-        <v>2024</v>
-      </c>
-      <c r="E50">
-        <v>3</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G50">
-        <v>9514324027</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51">
-        <v>2024</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G51">
-        <v>8248706456</v>
-      </c>
-      <c r="H51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52">
-        <v>2024</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52">
-        <v>8838231418</v>
-      </c>
-      <c r="H52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53">
-        <v>2024</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G53">
-        <v>9344828825</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54">
-        <v>2024</v>
-      </c>
-      <c r="E54">
-        <v>3</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54">
-        <v>9361548241</v>
-      </c>
-      <c r="H54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55">
-        <v>2024</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55">
-        <v>8072942534</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="B61" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56">
-        <v>2024</v>
-      </c>
-      <c r="E56">
-        <v>3</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56">
-        <v>7200280918</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E57" s="4">
-        <v>3</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G57" s="4">
-        <v>8015819026</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="4">
-        <v>2024</v>
-      </c>
-      <c r="E58" s="4">
-        <v>3</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G58" s="4">
-        <v>9363797199</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59">
-        <v>2024</v>
-      </c>
-      <c r="E59">
-        <v>3</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G59">
-        <v>9344371890</v>
-      </c>
-      <c r="H59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C61" t="s">
+        <v>241</v>
+      </c>
+      <c r="D61">
+        <v>2024</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60">
-        <v>2024</v>
-      </c>
-      <c r="E60">
-        <v>3</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G60">
+      <c r="G61">
         <v>7708976727</v>
       </c>
-      <c r="H60">
+      <c r="H61">
         <v>976727</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62">
+        <v>2024</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="G62">
+        <v>9342575031</v>
+      </c>
+      <c r="H62" t="s">
         <v>63</v>
       </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61">
-        <v>2024</v>
-      </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61">
-        <v>9342575031</v>
-      </c>
-      <c r="H61" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H57">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H58">
     <sortCondition ref="A28"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F21" r:id="rId1"/>
-    <hyperlink ref="H21" r:id="rId2"/>
-    <hyperlink ref="F17" r:id="rId3"/>
-    <hyperlink ref="F2" r:id="rId4"/>
-    <hyperlink ref="H2" r:id="rId5"/>
-    <hyperlink ref="F3" r:id="rId6"/>
-    <hyperlink ref="F4" r:id="rId7"/>
-    <hyperlink ref="H4" r:id="rId8"/>
-    <hyperlink ref="F6" r:id="rId9"/>
-    <hyperlink ref="F8" r:id="rId10"/>
-    <hyperlink ref="F9" r:id="rId11"/>
-    <hyperlink ref="F11" r:id="rId12"/>
-    <hyperlink ref="F15" r:id="rId13"/>
-    <hyperlink ref="F59" r:id="rId14"/>
-    <hyperlink ref="F52" r:id="rId15"/>
-    <hyperlink ref="F38" r:id="rId16"/>
-    <hyperlink ref="F49" r:id="rId17"/>
-    <hyperlink ref="F16" r:id="rId18"/>
-    <hyperlink ref="F61" r:id="rId19"/>
-    <hyperlink ref="F41" r:id="rId20"/>
-    <hyperlink ref="F30" r:id="rId21"/>
-    <hyperlink ref="F53" r:id="rId22"/>
-    <hyperlink ref="H53" r:id="rId23"/>
-    <hyperlink ref="F42" r:id="rId24"/>
-    <hyperlink ref="H42" r:id="rId25"/>
-    <hyperlink ref="F56" r:id="rId26"/>
-    <hyperlink ref="H56" r:id="rId27"/>
-    <hyperlink ref="F12" r:id="rId28"/>
-    <hyperlink ref="H12" r:id="rId29"/>
-    <hyperlink ref="F29" r:id="rId30"/>
-    <hyperlink ref="H29" r:id="rId31"/>
-    <hyperlink ref="F55" r:id="rId32"/>
-    <hyperlink ref="F23" r:id="rId33"/>
-    <hyperlink ref="F54" r:id="rId34"/>
-    <hyperlink ref="F51" r:id="rId35"/>
-    <hyperlink ref="F43" r:id="rId36"/>
-    <hyperlink ref="F60" r:id="rId37"/>
-    <hyperlink ref="F35" r:id="rId38"/>
-    <hyperlink ref="H35" r:id="rId39"/>
-    <hyperlink ref="F31" r:id="rId40"/>
-    <hyperlink ref="H31" r:id="rId41"/>
-    <hyperlink ref="F33" r:id="rId42"/>
-    <hyperlink ref="H33" r:id="rId43"/>
-    <hyperlink ref="F32" r:id="rId44"/>
-    <hyperlink ref="H32" r:id="rId45"/>
-    <hyperlink ref="F39" r:id="rId46"/>
-    <hyperlink ref="F25" r:id="rId47"/>
-    <hyperlink ref="F20" r:id="rId48"/>
-    <hyperlink ref="H20" r:id="rId49"/>
-    <hyperlink ref="F45" r:id="rId50"/>
-    <hyperlink ref="H45" r:id="rId51"/>
-    <hyperlink ref="F18" r:id="rId52"/>
-    <hyperlink ref="H18" r:id="rId53"/>
-    <hyperlink ref="F50" r:id="rId54"/>
-    <hyperlink ref="H50" r:id="rId55"/>
-    <hyperlink ref="F24" r:id="rId56"/>
-    <hyperlink ref="H24" r:id="rId57"/>
-    <hyperlink ref="F10" r:id="rId58"/>
-    <hyperlink ref="F58" r:id="rId59"/>
-    <hyperlink ref="F47" r:id="rId60"/>
-    <hyperlink ref="F19" r:id="rId61"/>
-    <hyperlink ref="H19" r:id="rId62"/>
-    <hyperlink ref="F5" r:id="rId63"/>
-    <hyperlink ref="H5" r:id="rId64"/>
-    <hyperlink ref="F37" r:id="rId65"/>
-    <hyperlink ref="H37" r:id="rId66"/>
-    <hyperlink ref="F34" r:id="rId67"/>
-    <hyperlink ref="F44" r:id="rId68"/>
-    <hyperlink ref="F48" r:id="rId69"/>
-    <hyperlink ref="F7" r:id="rId70"/>
-    <hyperlink ref="F28" r:id="rId71"/>
-    <hyperlink ref="H28" r:id="rId72"/>
-    <hyperlink ref="F46" r:id="rId73"/>
-    <hyperlink ref="H46" r:id="rId74"/>
-    <hyperlink ref="F13" r:id="rId75"/>
-    <hyperlink ref="F14" r:id="rId76"/>
-    <hyperlink ref="F57" r:id="rId77"/>
-    <hyperlink ref="F22" r:id="rId78"/>
-    <hyperlink ref="F26" r:id="rId79"/>
-    <hyperlink ref="F27" r:id="rId80"/>
-    <hyperlink ref="F36" r:id="rId81"/>
-    <hyperlink ref="F40" r:id="rId82"/>
+    <hyperlink ref="F21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F60" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F53" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F38" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F50" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F62" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F42" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F54" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H54" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F43" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H43" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F57" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H57" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F12" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H12" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H29" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F56" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F23" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F55" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F52" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F44" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F61" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F35" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H35" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F31" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H31" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F33" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H33" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F32" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H32" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F39" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F20" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H20" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F46" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H46" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F18" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="H18" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F51" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="H51" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F24" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H24" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F10" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F59" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F48" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F19" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H19" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F5" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H5" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F37" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H37" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F34" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F45" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F49" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F7" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F28" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="H28" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F47" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H47" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F13" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F14" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="F58" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F22" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F26" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F27" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F36" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F40" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="H45" r:id="rId83" xr:uid="{A47BA626-6082-43F8-B08E-53F50FBC8D1C}"/>
+    <hyperlink ref="F41" r:id="rId84" xr:uid="{2D6AAA5F-8B44-4535-B4A8-C7BD9523BD8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
